--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Epo-Crlf3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Epo-Crlf3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Epo</t>
   </si>
   <si>
     <t>Crlf3</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.419201</v>
+        <v>0.05176466666666666</v>
       </c>
       <c r="H2">
-        <v>1.257603</v>
+        <v>0.155294</v>
       </c>
       <c r="I2">
-        <v>0.8650221929663464</v>
+        <v>0.08753647729008611</v>
       </c>
       <c r="J2">
-        <v>0.8650221929663463</v>
+        <v>0.08753647729008612</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.866902</v>
+        <v>4.952761333333334</v>
       </c>
       <c r="N2">
-        <v>32.600706</v>
+        <v>14.858284</v>
       </c>
       <c r="O2">
-        <v>0.2279134186299707</v>
+        <v>0.1301814008714172</v>
       </c>
       <c r="P2">
-        <v>0.2279134186299707</v>
+        <v>0.1301814008714172</v>
       </c>
       <c r="Q2">
-        <v>4.555416185302001</v>
+        <v>0.2563780394995556</v>
       </c>
       <c r="R2">
-        <v>40.998745667718</v>
+        <v>2.307402355496</v>
       </c>
       <c r="S2">
-        <v>0.1971501651897542</v>
+        <v>0.01139562124097241</v>
       </c>
       <c r="T2">
-        <v>0.1971501651897541</v>
+        <v>0.01139562124097241</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.419201</v>
+        <v>0.05176466666666666</v>
       </c>
       <c r="H3">
-        <v>1.257603</v>
+        <v>0.155294</v>
       </c>
       <c r="I3">
-        <v>0.8650221929663464</v>
+        <v>0.08753647729008611</v>
       </c>
       <c r="J3">
-        <v>0.8650221929663463</v>
+        <v>0.08753647729008612</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.066838</v>
+        <v>6.066838000000001</v>
       </c>
       <c r="N3">
         <v>18.200514</v>
       </c>
       <c r="O3">
-        <v>0.1272408446173725</v>
+        <v>0.1594644717451787</v>
       </c>
       <c r="P3">
-        <v>0.1272408446173724</v>
+        <v>0.1594644717451787</v>
       </c>
       <c r="Q3">
-        <v>2.543224556438</v>
+        <v>0.3140478467906667</v>
       </c>
       <c r="R3">
-        <v>22.889021007942</v>
+        <v>2.826430621116</v>
       </c>
       <c r="S3">
-        <v>0.1100661544458097</v>
+        <v>0.01395895810949742</v>
       </c>
       <c r="T3">
-        <v>0.1100661544458096</v>
+        <v>0.01395895810949742</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.419201</v>
+        <v>0.05176466666666666</v>
       </c>
       <c r="H4">
-        <v>1.257603</v>
+        <v>0.155294</v>
       </c>
       <c r="I4">
-        <v>0.8650221929663464</v>
+        <v>0.08753647729008611</v>
       </c>
       <c r="J4">
-        <v>0.8650221929663463</v>
+        <v>0.08753647729008612</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.944527999999999</v>
+        <v>8.111688333333333</v>
       </c>
       <c r="N4">
-        <v>23.833584</v>
+        <v>24.335065</v>
       </c>
       <c r="O4">
-        <v>0.1666219623478268</v>
+        <v>0.2132125655962017</v>
       </c>
       <c r="P4">
-        <v>0.1666219623478268</v>
+        <v>0.2132125655962017</v>
       </c>
       <c r="Q4">
-        <v>3.330354082128</v>
+        <v>0.4198988426788888</v>
       </c>
       <c r="R4">
-        <v>29.973186739152</v>
+        <v>3.77908958411</v>
       </c>
       <c r="S4">
-        <v>0.1441316952664731</v>
+        <v>0.0186638769062729</v>
       </c>
       <c r="T4">
-        <v>0.1441316952664731</v>
+        <v>0.0186638769062729</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.419201</v>
+        <v>0.05176466666666666</v>
       </c>
       <c r="H5">
-        <v>1.257603</v>
+        <v>0.155294</v>
       </c>
       <c r="I5">
-        <v>0.8650221929663464</v>
+        <v>0.08753647729008611</v>
       </c>
       <c r="J5">
-        <v>0.8650221929663463</v>
+        <v>0.08753647729008612</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.801689</v>
+        <v>18.91378866666667</v>
       </c>
       <c r="N5">
-        <v>68.405067</v>
+        <v>56.741366</v>
       </c>
       <c r="O5">
-        <v>0.4782237744048301</v>
+        <v>0.4971415617872024</v>
       </c>
       <c r="P5">
-        <v>0.4782237744048301</v>
+        <v>0.4971415617872024</v>
       </c>
       <c r="Q5">
-        <v>9.558490830488999</v>
+        <v>0.9790659657337776</v>
       </c>
       <c r="R5">
-        <v>86.026417474401</v>
+        <v>8.811593691603999</v>
       </c>
       <c r="S5">
-        <v>0.4136741780643095</v>
+        <v>0.04351802103334338</v>
       </c>
       <c r="T5">
-        <v>0.4136741780643094</v>
+        <v>0.04351802103334339</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.065412</v>
+        <v>0.419201</v>
       </c>
       <c r="H6">
-        <v>0.196236</v>
+        <v>1.257603</v>
       </c>
       <c r="I6">
-        <v>0.1349778070336537</v>
+        <v>0.7088885369006155</v>
       </c>
       <c r="J6">
-        <v>0.1349778070336536</v>
+        <v>0.7088885369006155</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.866902</v>
+        <v>4.952761333333334</v>
       </c>
       <c r="N6">
-        <v>32.600706</v>
+        <v>14.858284</v>
       </c>
       <c r="O6">
-        <v>0.2279134186299707</v>
+        <v>0.1301814008714172</v>
       </c>
       <c r="P6">
-        <v>0.2279134186299707</v>
+        <v>0.1301814008714172</v>
       </c>
       <c r="Q6">
-        <v>0.7108257936240001</v>
+        <v>2.076202503694667</v>
       </c>
       <c r="R6">
-        <v>6.397432142616</v>
+        <v>18.685822533252</v>
       </c>
       <c r="S6">
-        <v>0.03076325344021651</v>
+        <v>0.09228410279541144</v>
       </c>
       <c r="T6">
-        <v>0.0307632534402165</v>
+        <v>0.09228410279541144</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.065412</v>
+        <v>0.419201</v>
       </c>
       <c r="H7">
-        <v>0.196236</v>
+        <v>1.257603</v>
       </c>
       <c r="I7">
-        <v>0.1349778070336537</v>
+        <v>0.7088885369006155</v>
       </c>
       <c r="J7">
-        <v>0.1349778070336536</v>
+        <v>0.7088885369006155</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.066838</v>
+        <v>6.066838000000001</v>
       </c>
       <c r="N7">
         <v>18.200514</v>
       </c>
       <c r="O7">
-        <v>0.1272408446173725</v>
+        <v>0.1594644717451787</v>
       </c>
       <c r="P7">
-        <v>0.1272408446173724</v>
+        <v>0.1594644717451787</v>
       </c>
       <c r="Q7">
-        <v>0.3968440072559999</v>
+        <v>2.543224556438</v>
       </c>
       <c r="R7">
-        <v>3.571596065304</v>
+        <v>22.889021007942</v>
       </c>
       <c r="S7">
-        <v>0.01717469017156281</v>
+        <v>0.1130425360630693</v>
       </c>
       <c r="T7">
-        <v>0.0171746901715628</v>
+        <v>0.1130425360630693</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.065412</v>
+        <v>0.419201</v>
       </c>
       <c r="H8">
-        <v>0.196236</v>
+        <v>1.257603</v>
       </c>
       <c r="I8">
-        <v>0.1349778070336537</v>
+        <v>0.7088885369006155</v>
       </c>
       <c r="J8">
-        <v>0.1349778070336536</v>
+        <v>0.7088885369006155</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.944527999999999</v>
+        <v>8.111688333333333</v>
       </c>
       <c r="N8">
-        <v>23.833584</v>
+        <v>24.335065</v>
       </c>
       <c r="O8">
-        <v>0.1666219623478268</v>
+        <v>0.2132125655962017</v>
       </c>
       <c r="P8">
-        <v>0.1666219623478268</v>
+        <v>0.2132125655962017</v>
       </c>
       <c r="Q8">
-        <v>0.519667465536</v>
+        <v>3.400427861021666</v>
       </c>
       <c r="R8">
-        <v>4.677007189824</v>
+        <v>30.603850749195</v>
       </c>
       <c r="S8">
-        <v>0.02249026708135367</v>
+        <v>0.1511439436743179</v>
       </c>
       <c r="T8">
-        <v>0.02249026708135366</v>
+        <v>0.1511439436743179</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.419201</v>
+      </c>
+      <c r="H9">
+        <v>1.257603</v>
+      </c>
+      <c r="I9">
+        <v>0.7088885369006155</v>
+      </c>
+      <c r="J9">
+        <v>0.7088885369006155</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>18.91378866666667</v>
+      </c>
+      <c r="N9">
+        <v>56.741366</v>
+      </c>
+      <c r="O9">
+        <v>0.4971415617872024</v>
+      </c>
+      <c r="P9">
+        <v>0.4971415617872024</v>
+      </c>
+      <c r="Q9">
+        <v>7.928679122855333</v>
+      </c>
+      <c r="R9">
+        <v>71.358112105698</v>
+      </c>
+      <c r="S9">
+        <v>0.3524179543678168</v>
+      </c>
+      <c r="T9">
+        <v>0.3524179543678168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.01374233333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.041227</v>
+      </c>
+      <c r="I10">
+        <v>0.02323892970261814</v>
+      </c>
+      <c r="J10">
+        <v>0.02323892970261814</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.952761333333334</v>
+      </c>
+      <c r="N10">
+        <v>14.858284</v>
+      </c>
+      <c r="O10">
+        <v>0.1301814008714172</v>
+      </c>
+      <c r="P10">
+        <v>0.1301814008714172</v>
+      </c>
+      <c r="Q10">
+        <v>0.06806249716311112</v>
+      </c>
+      <c r="R10">
+        <v>0.6125624744680001</v>
+      </c>
+      <c r="S10">
+        <v>0.003025276423439215</v>
+      </c>
+      <c r="T10">
+        <v>0.003025276423439215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.01374233333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.041227</v>
+      </c>
+      <c r="I11">
+        <v>0.02323892970261814</v>
+      </c>
+      <c r="J11">
+        <v>0.02323892970261814</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.066838000000001</v>
+      </c>
+      <c r="N11">
+        <v>18.200514</v>
+      </c>
+      <c r="O11">
+        <v>0.1594644717451787</v>
+      </c>
+      <c r="P11">
+        <v>0.1594644717451787</v>
+      </c>
+      <c r="Q11">
+        <v>0.08337251007533335</v>
+      </c>
+      <c r="R11">
+        <v>0.7503525906780001</v>
+      </c>
+      <c r="S11">
+        <v>0.003705783648951344</v>
+      </c>
+      <c r="T11">
+        <v>0.003705783648951343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.01374233333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.041227</v>
+      </c>
+      <c r="I12">
+        <v>0.02323892970261814</v>
+      </c>
+      <c r="J12">
+        <v>0.02323892970261814</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>8.111688333333333</v>
+      </c>
+      <c r="N12">
+        <v>24.335065</v>
+      </c>
+      <c r="O12">
+        <v>0.2132125655962017</v>
+      </c>
+      <c r="P12">
+        <v>0.2132125655962017</v>
+      </c>
+      <c r="Q12">
+        <v>0.1114735249727778</v>
+      </c>
+      <c r="R12">
+        <v>1.003261724755</v>
+      </c>
+      <c r="S12">
+        <v>0.004954831823604989</v>
+      </c>
+      <c r="T12">
+        <v>0.004954831823604989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.01374233333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.041227</v>
+      </c>
+      <c r="I13">
+        <v>0.02323892970261814</v>
+      </c>
+      <c r="J13">
+        <v>0.02323892970261814</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>18.91378866666667</v>
+      </c>
+      <c r="N13">
+        <v>56.741366</v>
+      </c>
+      <c r="O13">
+        <v>0.4971415617872024</v>
+      </c>
+      <c r="P13">
+        <v>0.4971415617872024</v>
+      </c>
+      <c r="Q13">
+        <v>0.2599195884535556</v>
+      </c>
+      <c r="R13">
+        <v>2.339276296082</v>
+      </c>
+      <c r="S13">
+        <v>0.01155303780662259</v>
+      </c>
+      <c r="T13">
+        <v>0.01155303780662259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.065412</v>
-      </c>
-      <c r="H9">
-        <v>0.196236</v>
-      </c>
-      <c r="I9">
-        <v>0.1349778070336537</v>
-      </c>
-      <c r="J9">
-        <v>0.1349778070336536</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>22.801689</v>
-      </c>
-      <c r="N9">
-        <v>68.405067</v>
-      </c>
-      <c r="O9">
-        <v>0.4782237744048301</v>
-      </c>
-      <c r="P9">
-        <v>0.4782237744048301</v>
-      </c>
-      <c r="Q9">
-        <v>1.491504080868</v>
-      </c>
-      <c r="R9">
-        <v>13.423536727812</v>
-      </c>
-      <c r="S9">
-        <v>0.06454959634052068</v>
-      </c>
-      <c r="T9">
-        <v>0.06454959634052067</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1066416666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.319925</v>
+      </c>
+      <c r="I14">
+        <v>0.1803360561066803</v>
+      </c>
+      <c r="J14">
+        <v>0.1803360561066803</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.952761333333334</v>
+      </c>
+      <c r="N14">
+        <v>14.858284</v>
+      </c>
+      <c r="O14">
+        <v>0.1301814008714172</v>
+      </c>
+      <c r="P14">
+        <v>0.1301814008714172</v>
+      </c>
+      <c r="Q14">
+        <v>0.528170723188889</v>
+      </c>
+      <c r="R14">
+        <v>4.753536508700001</v>
+      </c>
+      <c r="S14">
+        <v>0.02347640041159412</v>
+      </c>
+      <c r="T14">
+        <v>0.02347640041159412</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1066416666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.319925</v>
+      </c>
+      <c r="I15">
+        <v>0.1803360561066803</v>
+      </c>
+      <c r="J15">
+        <v>0.1803360561066803</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6.066838000000001</v>
+      </c>
+      <c r="N15">
+        <v>18.200514</v>
+      </c>
+      <c r="O15">
+        <v>0.1594644717451787</v>
+      </c>
+      <c r="P15">
+        <v>0.1594644717451787</v>
+      </c>
+      <c r="Q15">
+        <v>0.6469777157166668</v>
+      </c>
+      <c r="R15">
+        <v>5.822799441450001</v>
+      </c>
+      <c r="S15">
+        <v>0.02875719392366068</v>
+      </c>
+      <c r="T15">
+        <v>0.02875719392366068</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1066416666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.319925</v>
+      </c>
+      <c r="I16">
+        <v>0.1803360561066803</v>
+      </c>
+      <c r="J16">
+        <v>0.1803360561066803</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.111688333333333</v>
+      </c>
+      <c r="N16">
+        <v>24.335065</v>
+      </c>
+      <c r="O16">
+        <v>0.2132125655962017</v>
+      </c>
+      <c r="P16">
+        <v>0.2132125655962017</v>
+      </c>
+      <c r="Q16">
+        <v>0.8650439633472223</v>
+      </c>
+      <c r="R16">
+        <v>7.785395670125</v>
+      </c>
+      <c r="S16">
+        <v>0.03844991319200587</v>
+      </c>
+      <c r="T16">
+        <v>0.03844991319200587</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1066416666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.319925</v>
+      </c>
+      <c r="I17">
+        <v>0.1803360561066803</v>
+      </c>
+      <c r="J17">
+        <v>0.1803360561066803</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>18.91378866666667</v>
+      </c>
+      <c r="N17">
+        <v>56.741366</v>
+      </c>
+      <c r="O17">
+        <v>0.4971415617872024</v>
+      </c>
+      <c r="P17">
+        <v>0.4971415617872024</v>
+      </c>
+      <c r="Q17">
+        <v>2.016997946394445</v>
+      </c>
+      <c r="R17">
+        <v>18.15298151755</v>
+      </c>
+      <c r="S17">
+        <v>0.08965254857941958</v>
+      </c>
+      <c r="T17">
+        <v>0.08965254857941958</v>
       </c>
     </row>
   </sheetData>
